--- a/doc/Meilenstein.xlsx
+++ b/doc/Meilenstein.xlsx
@@ -73,13 +73,13 @@
     <t>Kartenerstellung</t>
   </si>
   <si>
-    <t>SW-Zusammenführung und Tests</t>
-  </si>
-  <si>
     <t>Meilensteine / Ziele - Autonomes Fahren</t>
   </si>
   <si>
     <t>Fahrzeugkoordinierung</t>
+  </si>
+  <si>
+    <t>SW-Zusammenführung und Start der Tests</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
                   <c:v>Kartenerstellung</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SW-Zusammenführung und Tests</c:v>
+                  <c:v>SW-Zusammenführung und Start der Tests</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Projektvorführung</c:v>
@@ -679,7 +679,7 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.0</c:v>
@@ -1272,7 +1272,7 @@
   <dimension ref="B1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1294,7 +1294,7 @@
     <row r="1" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="9">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E22" s="1">
         <f>1</f>
@@ -1480,7 +1480,7 @@
         <v>42857</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="9">
         <v>-10</v>
@@ -1530,7 +1530,7 @@
         <v>42876</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" s="9">
         <v>10</v>

--- a/doc/Meilenstein.xlsx
+++ b/doc/Meilenstein.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25420" windowHeight="17000"/>
   </bookViews>
   <sheets>
     <sheet name="Projektzeitachse" sheetId="1" r:id="rId1"/>
@@ -32,18 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Projektstart</t>
   </si>
   <si>
     <t>DATUM</t>
-  </si>
-  <si>
-    <t>MEILENSTEIN</t>
-  </si>
-  <si>
-    <t>POSITION</t>
   </si>
   <si>
     <t>BASISLINIE</t>
@@ -55,38 +49,74 @@
     <t>Projektvorführung</t>
   </si>
   <si>
-    <t>Motorsteuerung</t>
-  </si>
-  <si>
-    <t>Fahrzeugortung</t>
-  </si>
-  <si>
-    <t>Routenbildung</t>
-  </si>
-  <si>
     <t>Start Entwicklung aller Teams</t>
   </si>
   <si>
     <t>Projektplanung und Fahrzeugkonfiguration</t>
   </si>
   <si>
-    <t>Kartenerstellung</t>
-  </si>
-  <si>
     <t>Meilensteine / Ziele - Autonomes Fahren</t>
   </si>
   <si>
-    <t>Fahrzeugkoordinierung</t>
+    <t>SW-Zusammenführung und Start der Tests</t>
   </si>
   <si>
-    <t>SW-Zusammenführung und Start der Tests</t>
+    <t>MEILENSTEINE</t>
+  </si>
+  <si>
+    <t>Routenbildung fertig</t>
+  </si>
+  <si>
+    <t>Motorsteuerung fertig</t>
+  </si>
+  <si>
+    <t>Fahrzeugkoordinierung fertig</t>
+  </si>
+  <si>
+    <t>Fahrzeugortung fertig</t>
+  </si>
+  <si>
+    <t>Kartenerstellung fertig</t>
+  </si>
+  <si>
+    <t>STUNDEN</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>VERANTWORTLICHER</t>
+  </si>
+  <si>
+    <t>ALLE</t>
+  </si>
+  <si>
+    <t>ZINKL</t>
+  </si>
+  <si>
+    <t>ARENDT, WINAND</t>
+  </si>
+  <si>
+    <t>GECK</t>
+  </si>
+  <si>
+    <t>PFISTERMEISTER, KRÄMER</t>
+  </si>
+  <si>
+    <t>GECK, ZINKL</t>
+  </si>
+  <si>
+    <t>Routengenerierung Modulzusammenführung</t>
+  </si>
+  <si>
+    <t>GRAPH-Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -140,6 +170,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -170,34 +206,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="3"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
-      <top style="thick">
-        <color theme="3"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color theme="3"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="3"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thick">
-        <color theme="3"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -226,15 +268,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -254,6 +287,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -262,7 +304,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -356,8 +415,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Project Timeline" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -411,7 +470,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>POSITION</c:v>
+                  <c:v>GRAPH-Position</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -527,7 +586,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.09745060922113E-17"/>
@@ -548,7 +607,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.86566603567592E-16"/>
@@ -630,9 +689,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Projektzeitachse!$C$20:$C$30</c:f>
+              <c:f>Projektzeitachse!$C$20:$C$31</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Projektstart</c:v>
                 </c:pt>
@@ -643,24 +702,27 @@
                   <c:v>Start Entwicklung aller Teams</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Routenbildung</c:v>
+                  <c:v>Routenbildung fertig</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Motorsteuerung</c:v>
+                  <c:v>Motorsteuerung fertig</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Fahrzeugkoordinierung</c:v>
+                  <c:v>Fahrzeugkoordinierung fertig</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Fahrzeugortung</c:v>
+                  <c:v>Routengenerierung Modulzusammenführung</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Kartenerstellung</c:v>
+                  <c:v>Fahrzeugortung fertig</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Kartenerstellung fertig</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>SW-Zusammenführung und Start der Tests</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Projektvorführung</c:v>
                 </c:pt>
               </c:strCache>
@@ -668,10 +730,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Projektzeitachse!$D$20:$D$30</c:f>
+              <c:f>Projektzeitachse!$D$20:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>25.0</c:v>
                 </c:pt>
@@ -682,7 +744,7 @@
                   <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10.0</c:v>
@@ -691,15 +753,18 @@
                   <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-5.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -763,10 +828,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Projektzeitachse!$B$20:$B$30</c:f>
+              <c:f>Projektzeitachse!$B$20:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42815.0</c:v>
                 </c:pt>
@@ -786,15 +851,18 @@
                   <c:v>42857.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>42862.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>42865.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>42870.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>42876.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42899.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -802,10 +870,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Projektzeitachse!$E$20:$E$30</c:f>
+              <c:f>Projektzeitachse!$E$20:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -834,6 +902,9 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1020,14 +1091,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projektdetails" displayName="Projektdetails" ref="B19:E29" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" name="DATUM" dataDxfId="3"/>
-    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="2"/>
-    <tableColumn id="4" name="POSITION" dataDxfId="1"/>
-    <tableColumn id="5" name="BASISLINIE" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projektdetails" displayName="Projektdetails" ref="B19:G30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <tableColumns count="6">
+    <tableColumn id="1" name="DATUM" dataDxfId="5"/>
+    <tableColumn id="2" name="MEILENSTEINE" dataDxfId="4"/>
+    <tableColumn id="4" name="GRAPH-Position" dataDxfId="3"/>
+    <tableColumn id="5" name="BASISLINIE" dataDxfId="2">
       <calculatedColumnFormula>1</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="3" name="STUNDEN" dataDxfId="1"/>
+    <tableColumn id="6" name="VERANTWORTLICHER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Project Timeline" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1269,7 +1342,7 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N29"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
@@ -1283,7 +1356,7 @@
     <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
     <col min="8" max="11" width="9.1640625" style="1"/>
     <col min="12" max="12" width="10.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" style="1" customWidth="1"/>
@@ -1293,8 +1366,8 @@
   <sheetData>
     <row r="1" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="14" t="s">
-        <v>13</v>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1349,29 +1422,37 @@
       <c r="M17" s="3"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+    <row r="18" spans="2:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="I18" s="3"/>
       <c r="K18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
+      <c r="F19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="3"/>
       <c r="K19" s="3"/>
@@ -1380,18 +1461,24 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>42815</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>25</v>
       </c>
       <c r="E20" s="1">
         <f>1</f>
         <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
@@ -1399,18 +1486,24 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>42822</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
         <v>10</v>
       </c>
       <c r="E21" s="1">
         <f>1</f>
         <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I21" s="3"/>
       <c r="K21" s="3"/>
@@ -1419,18 +1512,24 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>42829</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
         <v>-5</v>
       </c>
       <c r="E22" s="1">
         <f>1</f>
         <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I22" s="3"/>
       <c r="K22" s="3"/>
@@ -1438,18 +1537,24 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>42845</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="9">
-        <v>5</v>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6">
+        <v>-5</v>
       </c>
       <c r="E23" s="1">
         <f>1</f>
         <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>39</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="I23" s="3"/>
       <c r="K23" s="3"/>
@@ -1457,18 +1562,24 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>42850</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="10">
         <v>10</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <f>1</f>
         <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>50</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I24" s="3"/>
       <c r="K24" s="3"/>
@@ -1476,18 +1587,24 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>42857</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6">
         <v>-10</v>
       </c>
       <c r="E25" s="1">
         <f>1</f>
         <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>37</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I25" s="3"/>
       <c r="K25" s="3"/>
@@ -1495,69 +1612,122 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="10">
-        <v>42865</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9">
-        <v>5</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="B26" s="7">
+        <v>42862</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="10">
+        <v>17</v>
+      </c>
+      <c r="E26" s="8">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="F26" s="6">
+        <v>12</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="10">
-        <v>42870</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="13">
-        <v>-5</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="B27" s="7">
+        <v>42865</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="F27" s="10">
+        <v>40</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="10">
-        <v>42876</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="9">
-        <v>10</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="B28" s="7">
+        <v>42870</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10">
+        <v>-5</v>
+      </c>
+      <c r="E28" s="8">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="F28" s="6">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="10">
-        <v>42899</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="9">
-        <v>25</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="B29" s="7">
+        <v>42876</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10</v>
+      </c>
+      <c r="E29" s="8">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="F29" s="6">
+        <v>50</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="7">
+        <v>42899</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/doc/Meilenstein.xlsx
+++ b/doc/Meilenstein.xlsx
@@ -1345,7 +1345,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
